--- a/data/trans_dic/P38B-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.8347962531597273</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7733114775089788</v>
+        <v>0.7733114775089789</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7626228517175996</v>
+        <v>0.7627570412689497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7686252775503116</v>
+        <v>0.7663154757059578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6258015810069157</v>
+        <v>0.6271317265306618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8421748947713551</v>
+        <v>0.8439402323174756</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8527340789582589</v>
+        <v>0.8530054714295133</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8154895562264014</v>
+        <v>0.8151341165193818</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.811714802729707</v>
+        <v>0.8103891663753241</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.818856651908437</v>
+        <v>0.8181022567002805</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7457398167486066</v>
+        <v>0.74143080381742</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8143955961520585</v>
+        <v>0.8125273669679659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8187238813183486</v>
+        <v>0.814594385274712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7286117220737921</v>
+        <v>0.7299342221926769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8861055622199657</v>
+        <v>0.8864731102256078</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8903297246416659</v>
+        <v>0.8884247723929695</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8741677712307843</v>
+        <v>0.8780793834973829</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.843314354108939</v>
+        <v>0.8436347143893096</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8496632865518534</v>
+        <v>0.8486185730759325</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8006780850087369</v>
+        <v>0.7991279348696376</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.8108885358823679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7746519579249294</v>
+        <v>0.7746519579249295</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.874138731886684</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7882903454723305</v>
+        <v>0.7894079422470973</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7850163877363303</v>
+        <v>0.783768782307358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7373031121681497</v>
+        <v>0.736536564343145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8520780203944559</v>
+        <v>0.8527746653142173</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8498201627894386</v>
+        <v>0.8481761840340089</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8284867055173236</v>
+        <v>0.8309362817797529</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.829179873336087</v>
+        <v>0.8289769117182004</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8252735783002866</v>
+        <v>0.8251797144714854</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7937551867196569</v>
+        <v>0.7973363816286942</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8401774655896245</v>
+        <v>0.8401281038345054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8374559712970872</v>
+        <v>0.8360792708672175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8045885072060608</v>
+        <v>0.8080783959019042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8933119874701893</v>
+        <v>0.8938466267203568</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8927372452432628</v>
+        <v>0.8907697018804537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8745938374290062</v>
+        <v>0.8745164315837773</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8605490482726578</v>
+        <v>0.8615999064119557</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8602860884124472</v>
+        <v>0.8592931163656641</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8343994387814474</v>
+        <v>0.8374232825412871</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.9034645016100477</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.869875438835119</v>
+        <v>0.8698754388351191</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8767745502083787</v>
@@ -882,7 +882,7 @@
         <v>0.8839530260650823</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8593465360262009</v>
+        <v>0.8593465360262007</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8254687581668603</v>
+        <v>0.8288581247315868</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8410405013560632</v>
+        <v>0.8392359819465776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8196420543834243</v>
+        <v>0.8224859103719161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.876997486075947</v>
+        <v>0.8787977112126141</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8818747378530848</v>
+        <v>0.8821340406536279</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.844373795596329</v>
+        <v>0.8460670990806649</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8612352853757808</v>
+        <v>0.8593987302627261</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8672740116046752</v>
+        <v>0.8678726556461068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8412936252890598</v>
+        <v>0.841726397484612</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8755541250031947</v>
+        <v>0.8769598576490012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8888674547986074</v>
+        <v>0.8869671195937661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8735933788161331</v>
+        <v>0.8762397493610729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.917564795766472</v>
+        <v>0.9187878550972289</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9235369078391116</v>
+        <v>0.9232557605967776</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8912926157618116</v>
+        <v>0.8898112528530115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8917152649978877</v>
+        <v>0.8909004061348667</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9004014438642328</v>
+        <v>0.8999220065580671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8747215301987881</v>
+        <v>0.8762609464380823</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.8355969840452639</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.893490552379485</v>
+        <v>0.8934905523794852</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.8585617192161097</v>
@@ -991,7 +991,7 @@
         <v>0.823336045819436</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8658263783715623</v>
+        <v>0.8658263783715622</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8146391819448743</v>
+        <v>0.8130842208902325</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7747549671132019</v>
+        <v>0.7737985779384025</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.807899320376533</v>
+        <v>0.8095538106820178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8378864864459276</v>
+        <v>0.8341284673286827</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7984883419133408</v>
+        <v>0.7988795497140458</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.867908128684543</v>
+        <v>0.8688033708826692</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8364238721955319</v>
+        <v>0.8362408959724739</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7955421582726728</v>
+        <v>0.7966782463270721</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8475963238325955</v>
+        <v>0.8460609995529704</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8794631444999441</v>
+        <v>0.8759349143275357</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8420195629541757</v>
+        <v>0.844272991569725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8654593751839432</v>
+        <v>0.8670205795978035</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9007024996222419</v>
+        <v>0.9003767131304052</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8676343900179442</v>
+        <v>0.8681653510410777</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9131535812129007</v>
+        <v>0.9139391473522022</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8791803290326803</v>
+        <v>0.8795033206926003</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8474401422299876</v>
+        <v>0.8459138511669742</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8841014231176355</v>
+        <v>0.8835752671928214</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8183517660405051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8018519955851906</v>
+        <v>0.8018519955851907</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8773202577254438</v>
@@ -1091,7 +1091,7 @@
         <v>0.8739704447657032</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8669279689213386</v>
+        <v>0.8669279689213387</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.849991775144521</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8072705895906758</v>
+        <v>0.8077795360801047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8045032412100005</v>
+        <v>0.8038046990473481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7838543764016884</v>
+        <v>0.7848513681816857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8665292112159999</v>
+        <v>0.8654843923066141</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.863509552008325</v>
+        <v>0.8622030813026593</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.854270203871226</v>
+        <v>0.854087292746713</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8409848860179164</v>
+        <v>0.8415730956341775</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8374037015120026</v>
+        <v>0.8381414315389664</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8244075195145892</v>
+        <v>0.824333229785837</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8339579247319807</v>
+        <v>0.8357649103114634</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8320557978501083</v>
+        <v>0.8320660844583776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8183146135539764</v>
+        <v>0.8182045686965107</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8895442782348166</v>
+        <v>0.8879593938760288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8846948603773936</v>
+        <v>0.885236971088771</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.877736657134178</v>
+        <v>0.8785654677564645</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8591142967558657</v>
+        <v>0.8587516112455439</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8551364812949304</v>
+        <v>0.8554798726563846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8451460909813125</v>
+        <v>0.8445428067934745</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>794021</v>
+        <v>794161</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>857004</v>
+        <v>854429</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>312112</v>
+        <v>312775</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>936796</v>
+        <v>938759</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1072212</v>
+        <v>1072554</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>508196</v>
+        <v>507974</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1748047</v>
+        <v>1745193</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1942628</v>
+        <v>1940838</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>836660</v>
+        <v>831825</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>847925</v>
+        <v>845980</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>912863</v>
+        <v>908259</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>363387</v>
+        <v>364047</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>985662</v>
+        <v>986071</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1119485</v>
+        <v>1117089</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>544763</v>
+        <v>547201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1816098</v>
+        <v>1816788</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2015712</v>
+        <v>2013234</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>898296</v>
+        <v>896557</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>764857</v>
+        <v>765941</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>709459</v>
+        <v>708332</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>707912</v>
+        <v>707176</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>929696</v>
+        <v>930456</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>854533</v>
+        <v>852880</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>923779</v>
+        <v>926511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1709242</v>
+        <v>1708824</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1575693</v>
+        <v>1575514</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1647167</v>
+        <v>1654598</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>815202</v>
+        <v>815154</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>756852</v>
+        <v>755607</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>772515</v>
+        <v>775866</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>974686</v>
+        <v>975269</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>897688</v>
+        <v>895710</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>975190</v>
+        <v>975103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1773906</v>
+        <v>1776072</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1642543</v>
+        <v>1640647</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1731510</v>
+        <v>1737785</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>723660</v>
+        <v>726631</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>685906</v>
+        <v>684434</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>857738</v>
+        <v>860714</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>761811</v>
+        <v>763375</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>676792</v>
+        <v>676991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>883087</v>
+        <v>884858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1503134</v>
+        <v>1499928</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1372887</v>
+        <v>1373835</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1760263</v>
+        <v>1761169</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>767568</v>
+        <v>768800</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>724911</v>
+        <v>723361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>914197</v>
+        <v>916966</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>797050</v>
+        <v>798112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>708766</v>
+        <v>708550</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>932157</v>
+        <v>930608</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1556331</v>
+        <v>1554909</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1425327</v>
+        <v>1424568</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1830205</v>
+        <v>1833426</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>404940</v>
+        <v>404167</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>389582</v>
+        <v>389102</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>787645</v>
+        <v>789258</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>377697</v>
+        <v>376003</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>387723</v>
+        <v>387913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>787142</v>
+        <v>787954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>792806</v>
+        <v>792633</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>786327</v>
+        <v>787450</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1595068</v>
+        <v>1592179</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>437163</v>
+        <v>435409</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>423406</v>
+        <v>424539</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>843762</v>
+        <v>845284</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>406013</v>
+        <v>405866</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>421298</v>
+        <v>421556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>828177</v>
+        <v>828890</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>833333</v>
+        <v>833639</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>837623</v>
+        <v>836115</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1663766</v>
+        <v>1662776</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2732763</v>
+        <v>2734486</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2684727</v>
+        <v>2682396</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2728037</v>
+        <v>2731506</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3052675</v>
+        <v>3048994</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3036053</v>
+        <v>3031459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3153104</v>
+        <v>3152429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5809577</v>
+        <v>5813641</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5738787</v>
+        <v>5743843</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5912054</v>
+        <v>5911521</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2823104</v>
+        <v>2829221</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2776673</v>
+        <v>2776708</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2847968</v>
+        <v>2847585</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3133754</v>
+        <v>3128171</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3110539</v>
+        <v>3112445</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3239718</v>
+        <v>3242777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5934817</v>
+        <v>5932311</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5860311</v>
+        <v>5862664</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6060776</v>
+        <v>6056450</v>
       </c>
     </row>
     <row r="24">
